--- a/outputs/R_OUT - SC Earliest reliable return year using PBT baseline by stock - draft working.xlsx
+++ b/outputs/R_OUT - SC Earliest reliable return year using PBT baseline by stock - draft working.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,14 +506,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Big Qualicum</t>
+          <t>Bedwell</t>
         </is>
       </c>
       <c r="B13">
-        <v>2013</v>
-      </c>
-      <c r="C13">
-        <v>1.027964205816555</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="14">
@@ -523,10 +520,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.899672131147541</v>
+        <v>1.027964205816555</v>
       </c>
     </row>
     <row r="15">
@@ -536,10 +533,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.049738219895288</v>
+        <v>0.899672131147541</v>
       </c>
     </row>
     <row r="16">
@@ -549,7 +546,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="C16">
+        <v>1.049738219895288</v>
       </c>
     </row>
     <row r="17">
@@ -559,10 +559,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>2017</v>
-      </c>
-      <c r="C17">
-        <v>0.9611171960569551</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="18">
@@ -572,10 +569,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C18">
-        <v>0.964</v>
+        <v>0.9611171960569551</v>
       </c>
     </row>
     <row r="19">
@@ -585,10 +582,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C19">
-        <v>0.9954128440366973</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="20">
@@ -598,10 +595,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C20">
-        <v>0.9561728395061728</v>
+        <v>0.9954128440366973</v>
       </c>
     </row>
     <row r="21">
@@ -611,18 +608,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C21">
-        <v>0.9886120996441281</v>
-      </c>
-      <c r="D21">
-        <v>2022</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Big Qualicum - 2022</t>
-        </is>
+        <v>0.9561728395061728</v>
       </c>
     </row>
     <row r="22">
@@ -632,7 +621,18 @@
         </is>
       </c>
       <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22">
+        <v>0.9886120996441281</v>
+      </c>
+      <c r="D22">
         <v>2022</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Big Qualicum - 2022</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -642,33 +642,27 @@
         </is>
       </c>
       <c r="B23">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Burman</t>
+          <t>Big Qualicum</t>
         </is>
       </c>
       <c r="B24">
-        <v>2013</v>
-      </c>
-      <c r="C24">
-        <v>0.945273631840796</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Burman</t>
+          <t>Big Qualicum</t>
         </is>
       </c>
       <c r="B25">
-        <v>2014</v>
-      </c>
-      <c r="C25">
-        <v>0.9757575757575757</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="26">
@@ -678,10 +672,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C26">
-        <v>1.182692307692308</v>
+        <v>0.945273631840796</v>
       </c>
     </row>
     <row r="27">
@@ -691,7 +685,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="C27">
+        <v>0.9757575757575757</v>
       </c>
     </row>
     <row r="28">
@@ -701,10 +698,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C28">
-        <v>1.015706806282723</v>
+        <v>1.182692307692308</v>
       </c>
     </row>
     <row r="29">
@@ -714,10 +711,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>2018</v>
-      </c>
-      <c r="C29">
-        <v>1.085106382978723</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="30">
@@ -727,10 +721,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C30">
-        <v>0.8695652173913043</v>
+        <v>1.015706806282723</v>
       </c>
     </row>
     <row r="31">
@@ -740,7 +734,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>2020</v>
+        <v>2018</v>
+      </c>
+      <c r="C31">
+        <v>1.085106382978723</v>
       </c>
     </row>
     <row r="32">
@@ -750,7 +747,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>2021</v>
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="33">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="34">
@@ -770,37 +770,37 @@
         </is>
       </c>
       <c r="B34">
-        <v>2023</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Conuma</t>
+          <t>Burman</t>
         </is>
       </c>
       <c r="B35">
-        <v>2013</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Conuma</t>
+          <t>Burman</t>
         </is>
       </c>
       <c r="B36">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Conuma</t>
+          <t>Burman</t>
         </is>
       </c>
       <c r="B37">
-        <v>2015</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="39">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>2017</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="40">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42">
@@ -850,10 +850,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>2020</v>
-      </c>
-      <c r="C42">
-        <v>0.9876390605686032</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="43">
@@ -863,10 +860,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>2021</v>
-      </c>
-      <c r="C43">
-        <v>0.9896214896214897</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
@@ -876,7 +870,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2022</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="45">
@@ -886,53 +880,53 @@
         </is>
       </c>
       <c r="B45">
-        <v>2023</v>
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <v>0.9876390605686032</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cowichan</t>
+          <t>Conuma</t>
         </is>
       </c>
       <c r="B46">
-        <v>2013</v>
+        <v>2021</v>
+      </c>
+      <c r="C46">
+        <v>0.9896214896214897</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cowichan</t>
+          <t>Conuma</t>
         </is>
       </c>
       <c r="B47">
-        <v>2014</v>
-      </c>
-      <c r="C47">
-        <v>1.054590570719603</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cowichan</t>
+          <t>Conuma</t>
         </is>
       </c>
       <c r="B48">
-        <v>2015</v>
-      </c>
-      <c r="C48">
-        <v>0.9826302729528535</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cowichan</t>
+          <t>Conuma</t>
         </is>
       </c>
       <c r="B49">
-        <v>2016</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="50">
@@ -942,10 +936,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>2017</v>
-      </c>
-      <c r="C50">
-        <v>0.9307228915662651</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="51">
@@ -955,7 +946,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>2018</v>
+        <v>2014</v>
+      </c>
+      <c r="C51">
+        <v>1.054590570719603</v>
       </c>
     </row>
     <row r="52">
@@ -965,10 +959,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C52">
-        <v>0.8676056338028169</v>
+        <v>0.9826302729528535</v>
       </c>
     </row>
     <row r="53">
@@ -978,10 +972,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>2020</v>
-      </c>
-      <c r="C53">
-        <v>0.9384615384615385</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="54">
@@ -991,10 +982,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C54">
-        <v>0.9328165374677002</v>
+        <v>0.9307228915662651</v>
       </c>
     </row>
     <row r="55">
@@ -1004,7 +995,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>2022</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="56">
@@ -1014,63 +1005,66 @@
         </is>
       </c>
       <c r="B56">
-        <v>2023</v>
+        <v>2019</v>
+      </c>
+      <c r="C56">
+        <v>0.8676056338028169</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Cowichan</t>
         </is>
       </c>
       <c r="B57">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="C57">
-        <v>1.137724550898204</v>
+        <v>0.9384615384615385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Cowichan</t>
         </is>
       </c>
       <c r="B58">
-        <v>2014</v>
+        <v>2021</v>
+      </c>
+      <c r="C58">
+        <v>0.9328165374677002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Cowichan</t>
         </is>
       </c>
       <c r="B59">
-        <v>2015</v>
-      </c>
-      <c r="C59">
-        <v>2.307692307692307</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Cowichan</t>
         </is>
       </c>
       <c r="B60">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Cowichan</t>
         </is>
       </c>
       <c r="B61">
-        <v>2017</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="62">
@@ -1080,7 +1074,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="C62">
+        <v>1.137724550898204</v>
       </c>
     </row>
     <row r="63">
@@ -1090,10 +1087,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>2019</v>
-      </c>
-      <c r="C63">
-        <v>0.8537549407114624</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="64">
@@ -1103,10 +1097,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C64">
-        <v>0.9728506787330317</v>
+        <v>2.307692307692307</v>
       </c>
     </row>
     <row r="65">
@@ -1116,7 +1110,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="66">
@@ -1126,7 +1120,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="67">
@@ -1136,70 +1130,73 @@
         </is>
       </c>
       <c r="B67">
-        <v>2023</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B68">
-        <v>2013</v>
+        <v>2019</v>
+      </c>
+      <c r="C68">
+        <v>0.8537549407114624</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B69">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C69">
-        <v>1.5</v>
+        <v>0.9728506787330317</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B70">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B71">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B72">
-        <v>2017</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Leiner</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B73">
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="74">
@@ -1209,10 +1206,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>2019</v>
-      </c>
-      <c r="C74">
-        <v>0.9903846153846154</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="75">
@@ -1222,10 +1216,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C75">
-        <v>1.032608695652174</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="76">
@@ -1235,10 +1229,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>2021</v>
-      </c>
-      <c r="C76">
-        <v>1.015384615384615</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="77">
@@ -1248,7 +1239,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="78">
@@ -1258,80 +1249,86 @@
         </is>
       </c>
       <c r="B78">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B79">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B80">
-        <v>2014</v>
+        <v>2019</v>
+      </c>
+      <c r="C80">
+        <v>0.9903846153846154</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2020</v>
+      </c>
+      <c r="C81">
+        <v>1.032608695652174</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B82">
-        <v>2016</v>
+        <v>2021</v>
+      </c>
+      <c r="C82">
+        <v>1.015384615384615</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B83">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B84">
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Little Qualicum</t>
+          <t>Leiner</t>
         </is>
       </c>
       <c r="B85">
-        <v>2019</v>
-      </c>
-      <c r="C85">
-        <v>0.9945609945609946</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="86">
@@ -1341,10 +1338,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>2020</v>
-      </c>
-      <c r="C86">
-        <v>0.9984779299847792</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="87">
@@ -1354,10 +1348,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>2021</v>
-      </c>
-      <c r="C87">
-        <v>0.9899665551839465</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="88">
@@ -1367,7 +1358,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>2022</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="89">
@@ -1377,92 +1368,96 @@
         </is>
       </c>
       <c r="B89">
-        <v>2023</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B90">
-        <v>2013</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B91">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B92">
-        <v>2015</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>2019</v>
+      </c>
+      <c r="C92">
+        <v>0.9945609945609946</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B93">
-        <v>2016</v>
+        <v>2020</v>
+      </c>
+      <c r="C93">
+        <v>0.9984779299847792</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B94">
-        <v>2017</v>
+        <v>2021</v>
+      </c>
+      <c r="C94">
+        <v>0.9899665551839465</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B95">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B96">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Marble</t>
+          <t>Little Qualicum</t>
         </is>
       </c>
       <c r="B97">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="98">
@@ -1472,7 +1467,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>2021</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="99">
@@ -1482,7 +1477,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>2022</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="100">
@@ -1492,153 +1487,102 @@
         </is>
       </c>
       <c r="B100">
-        <v>2023</v>
+        <v>2015</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B101">
-        <v>2013</v>
-      </c>
-      <c r="C101">
-        <v>1.083333333333333</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B102">
-        <v>2014</v>
-      </c>
-      <c r="C102">
-        <v>0.9333333333333333</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B103">
-        <v>2015</v>
-      </c>
-      <c r="C103">
-        <v>1.268292682926829</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B104">
-        <v>2016</v>
-      </c>
-      <c r="C104">
-        <v>2.354838709677419</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B105">
-        <v>2017</v>
-      </c>
-      <c r="C105">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="D105">
-        <v>2018</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Nahmint - 2018</t>
-        </is>
+        <v>2020</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B106">
-        <v>2018</v>
-      </c>
-      <c r="C106">
-        <v>1.416666666666667</v>
-      </c>
-      <c r="D106">
-        <v>2019</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Nahmint - 2019</t>
-        </is>
+        <v>2021</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B107">
-        <v>2019</v>
-      </c>
-      <c r="C107">
-        <v>1.029411764705882</v>
-      </c>
-      <c r="D107">
-        <v>2020</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Nahmint - 2020</t>
-        </is>
+        <v>2022</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B108">
-        <v>2020</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>2021</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Nahmint - 2021</t>
-        </is>
+        <v>2023</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nahmint</t>
+          <t>Marble</t>
         </is>
       </c>
       <c r="B109">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="110">
@@ -1648,7 +1592,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>2022</v>
+        <v>2013</v>
+      </c>
+      <c r="C110">
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -1658,116 +1605,160 @@
         </is>
       </c>
       <c r="B111">
-        <v>2023</v>
+        <v>2014</v>
+      </c>
+      <c r="C111">
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B112">
-        <v>2013</v>
+        <v>2015</v>
+      </c>
+      <c r="C112">
+        <v>1.268292682926829</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B113">
-        <v>2014</v>
+        <v>2016</v>
+      </c>
+      <c r="C113">
+        <v>2.354838709677419</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B114">
-        <v>2015</v>
+        <v>2017</v>
+      </c>
+      <c r="C114">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="D114">
+        <v>2018</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Nahmint - 2018</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B115">
-        <v>2016</v>
+        <v>2018</v>
+      </c>
+      <c r="C115">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="D115">
+        <v>2019</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Nahmint - 2019</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B116">
-        <v>2017</v>
+        <v>2019</v>
+      </c>
+      <c r="C116">
+        <v>1.029411764705882</v>
+      </c>
+      <c r="D116">
+        <v>2020</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Nahmint - 2020</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B117">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>2021</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Nahmint - 2021</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B118">
-        <v>2019</v>
-      </c>
-      <c r="C118">
-        <v>0.9441860465116279</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B119">
-        <v>2020</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B120">
-        <v>2021</v>
-      </c>
-      <c r="C120">
-        <v>0.9763779527559056</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nanaimo Fall</t>
+          <t>Nahmint</t>
         </is>
       </c>
       <c r="B121">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="122">
@@ -1777,77 +1768,80 @@
         </is>
       </c>
       <c r="B122">
-        <v>2023</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B123">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B124">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B125">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B126">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B127">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B128">
-        <v>2018</v>
+        <v>2019</v>
+      </c>
+      <c r="C128">
+        <v>0.9441860465116279</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B129">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -1856,53 +1850,50 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B130">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C130">
-        <v>0.96875</v>
+        <v>0.9763779527559056</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B131">
-        <v>2021</v>
-      </c>
-      <c r="C131">
-        <v>0.975</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B132">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nanaimo Summer</t>
+          <t>Nanaimo Fall</t>
         </is>
       </c>
       <c r="B133">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B134">
@@ -1912,7 +1903,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B135">
@@ -1922,7 +1913,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B136">
@@ -1932,22 +1923,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B137">
         <v>2016</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B138">
@@ -1957,7 +1943,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B139">
@@ -1967,37 +1953,46 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B140">
         <v>2019</v>
       </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B141">
         <v>2020</v>
       </c>
+      <c r="C141">
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B142">
         <v>2021</v>
       </c>
+      <c r="C142">
+        <v>0.975</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B143">
@@ -2007,7 +2002,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nimpkish</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B144">
@@ -2017,1426 +2012,1661 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nanaimo Summer</t>
         </is>
       </c>
       <c r="B145">
-        <v>2013</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B146">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B147">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B148">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B149">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B150">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B151">
-        <v>2019</v>
-      </c>
-      <c r="C151">
-        <v>1.011489992587101</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B152">
-        <v>2020</v>
-      </c>
-      <c r="C152">
-        <v>1.028052805280528</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B153">
-        <v>2021</v>
-      </c>
-      <c r="C153">
-        <v>0.9974405850091408</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B154">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nitinat</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B155">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B156">
-        <v>2013</v>
-      </c>
-      <c r="C156">
-        <v>0.9436619718309859</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nimpkish</t>
         </is>
       </c>
       <c r="B157">
-        <v>2014</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B158">
-        <v>2015</v>
-      </c>
-      <c r="C158">
-        <v>0.9649122807017544</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B159">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B160">
-        <v>2017</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B161">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B162">
-        <v>2019</v>
-      </c>
-      <c r="C162">
-        <v>1.025</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B163">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B164">
-        <v>2021</v>
+        <v>2019</v>
+      </c>
+      <c r="C164">
+        <v>1.011489992587101</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B165">
-        <v>2022</v>
+        <v>2020</v>
+      </c>
+      <c r="C165">
+        <v>1.028052805280528</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Phillips</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B166">
-        <v>2023</v>
+        <v>2021</v>
+      </c>
+      <c r="C166">
+        <v>0.9974405850091408</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B167">
-        <v>2013</v>
-      </c>
-      <c r="C167">
-        <v>0.9985401459854014</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B168">
-        <v>2014</v>
-      </c>
-      <c r="C168">
-        <v>0.990999099909991</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Nitinat</t>
         </is>
       </c>
       <c r="B169">
-        <v>2015</v>
-      </c>
-      <c r="C169">
-        <v>1.030990173847317</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B170">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C170">
-        <v>0.8535645472061657</v>
+        <v>0.9436619718309859</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B171">
-        <v>2017</v>
-      </c>
-      <c r="C171">
-        <v>0.9796057104010877</v>
-      </c>
-      <c r="D171">
-        <v>2018</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Quinsam - 2018</t>
-        </is>
+        <v>2014</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B172">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C172">
-        <v>0.9689045936395759</v>
-      </c>
-      <c r="D172">
-        <v>2019</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Quinsam - 2019</t>
-        </is>
+        <v>0.9649122807017544</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B173">
-        <v>2019</v>
-      </c>
-      <c r="C173">
-        <v>0.9955588452997779</v>
-      </c>
-      <c r="D173">
-        <v>2020</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Quinsam - 2020</t>
-        </is>
+        <v>2016</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B174">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C174">
-        <v>0.9887218045112782</v>
-      </c>
-      <c r="D174">
-        <v>2021</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Quinsam - 2021</t>
-        </is>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B175">
-        <v>2021</v>
-      </c>
-      <c r="C175">
-        <v>0.9808781869688386</v>
-      </c>
-      <c r="D175">
-        <v>2022</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Quinsam - 2022</t>
-        </is>
+        <v>2018</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B176">
-        <v>2022</v>
+        <v>2019</v>
+      </c>
+      <c r="C176">
+        <v>1.025</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Quinsam</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B177">
-        <v>2023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B178">
-        <v>2013</v>
-      </c>
-      <c r="C178">
-        <v>1.149299719887955</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B179">
-        <v>2014</v>
-      </c>
-      <c r="C179">
-        <v>0.9180816888480955</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B180">
-        <v>2015</v>
-      </c>
-      <c r="C180">
-        <v>1.052197802197802</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Phillips</t>
         </is>
       </c>
       <c r="B181">
-        <v>2016</v>
-      </c>
-      <c r="C181">
-        <v>0.9636285836542576</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B182">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C182">
-        <v>1.018438177874186</v>
-      </c>
-      <c r="D182">
-        <v>2018</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Robertson - 2018</t>
-        </is>
+        <v>0.9985401459854014</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B183">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C183">
-        <v>0.9530927835051546</v>
-      </c>
-      <c r="D183">
-        <v>2019</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Robertson - 2019</t>
-        </is>
+        <v>0.990999099909991</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B184">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C184">
-        <v>1.024390243902439</v>
-      </c>
-      <c r="D184">
-        <v>2020</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Robertson - 2020</t>
-        </is>
+        <v>1.030990173847317</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B185">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C185">
-        <v>1.00596421471173</v>
-      </c>
-      <c r="D185">
-        <v>2021</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Robertson - 2021</t>
-        </is>
+        <v>0.8535645472061657</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B186">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C186">
-        <v>1.018820577164366</v>
+        <v>0.9796057104010877</v>
       </c>
       <c r="D186">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Robertson - 2022</t>
+          <t>Quinsam - 2018</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B187">
-        <v>2022</v>
+        <v>2018</v>
+      </c>
+      <c r="C187">
+        <v>0.9689045936395759</v>
+      </c>
+      <c r="D187">
+        <v>2019</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Quinsam - 2019</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Robertson</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B188">
-        <v>2023</v>
+        <v>2019</v>
+      </c>
+      <c r="C188">
+        <v>0.9955588452997779</v>
+      </c>
+      <c r="D188">
+        <v>2020</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Quinsam - 2020</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B189">
-        <v>2013</v>
+        <v>2020</v>
+      </c>
+      <c r="C189">
+        <v>0.9887218045112782</v>
+      </c>
+      <c r="D189">
+        <v>2021</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Quinsam - 2021</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B190">
-        <v>2014</v>
+        <v>2021</v>
+      </c>
+      <c r="C190">
+        <v>0.9808781869688386</v>
+      </c>
+      <c r="D190">
+        <v>2022</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Quinsam - 2022</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B191">
-        <v>2015</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B192">
-        <v>2016</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Quinsam</t>
         </is>
       </c>
       <c r="B193">
-        <v>2017</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B194">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>1.149299719887955</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B195">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C195">
-        <v>0.9754601226993865</v>
+        <v>0.9180816888480955</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B196">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C196">
-        <v>0.9641434262948207</v>
+        <v>1.052197802197802</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B197">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C197">
-        <v>0.8851963746223565</v>
+        <v>0.9636285836542576</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B198">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C198">
-        <v>0.999999</v>
+        <v>1.018438177874186</v>
       </c>
       <c r="D198">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>San Juan - 2023</t>
+          <t>Robertson - 2018</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>San Juan</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B199">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="C199">
-        <v>0.999999</v>
+        <v>0.9530927835051546</v>
       </c>
       <c r="D199">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>San Juan - 2024</t>
+          <t>Robertson - 2019</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B200">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C200">
-        <v>1.525714285714286</v>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="D200">
+        <v>2020</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Robertson - 2020</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B201">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C201">
-        <v>1.192771084337349</v>
+        <v>1.00596421471173</v>
+      </c>
+      <c r="D201">
+        <v>2021</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Robertson - 2021</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B202">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C202">
-        <v>1.378640776699029</v>
+        <v>1.018820577164366</v>
+      </c>
+      <c r="D202">
+        <v>2022</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Robertson - 2022</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B203">
-        <v>2016</v>
-      </c>
-      <c r="C203">
-        <v>1.201923076923077</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B204">
-        <v>2017</v>
-      </c>
-      <c r="C204">
-        <v>0.9967213114754099</v>
-      </c>
-      <c r="D204">
-        <v>2018</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Sarita - 2018</t>
-        </is>
+        <v>2023</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>Robertson</t>
         </is>
       </c>
       <c r="B205">
-        <v>2018</v>
-      </c>
-      <c r="C205">
-        <v>0.9419642857142857</v>
-      </c>
-      <c r="D205">
-        <v>2019</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Sarita - 2019</t>
-        </is>
+        <v>2024</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B206">
-        <v>2019</v>
-      </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-      <c r="D206">
-        <v>2020</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Sarita - 2020</t>
-        </is>
+        <v>2013</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B207">
-        <v>2020</v>
-      </c>
-      <c r="C207">
-        <v>0.995850622406639</v>
-      </c>
-      <c r="D207">
-        <v>2021</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Sarita - 2021</t>
-        </is>
+        <v>2014</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B208">
-        <v>2021</v>
-      </c>
-      <c r="C208">
-        <v>0.9731543624161074</v>
-      </c>
-      <c r="D208">
-        <v>2022</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Sarita - 2022</t>
-        </is>
+        <v>2015</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B209">
-        <v>2022</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Sarita</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B210">
-        <v>2023</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B211">
-        <v>2013</v>
+        <v>2018</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B212">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C212">
-        <v>1.333333333333333</v>
+        <v>0.9754601226993865</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B213">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C213">
-        <v>2.655172413793104</v>
+        <v>0.9641434262948207</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B214">
-        <v>2016</v>
+        <v>2021</v>
+      </c>
+      <c r="C214">
+        <v>0.8851963746223565</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B215">
-        <v>2017</v>
+        <v>2022</v>
+      </c>
+      <c r="C215">
+        <v>0.999999</v>
+      </c>
+      <c r="D215">
+        <v>2023</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>San Juan - 2023</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B216">
-        <v>2018</v>
+        <v>2023</v>
+      </c>
+      <c r="C216">
+        <v>0.999999</v>
+      </c>
+      <c r="D216">
+        <v>2024</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>San Juan - 2024</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>San Juan</t>
         </is>
       </c>
       <c r="B217">
-        <v>2019</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B218">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="C218">
-        <v>1.125</v>
+        <v>1.525714285714286</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B219">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C219">
-        <v>0.9827586206896551</v>
+        <v>1.192771084337349</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B220">
-        <v>2022</v>
+        <v>2015</v>
+      </c>
+      <c r="C220">
+        <v>1.378640776699029</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Tahsis</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B221">
-        <v>2023</v>
+        <v>2016</v>
+      </c>
+      <c r="C221">
+        <v>1.201923076923077</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B222">
-        <v>2013</v>
+        <v>2017</v>
+      </c>
+      <c r="C222">
+        <v>0.9967213114754099</v>
+      </c>
+      <c r="D222">
+        <v>2018</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Sarita - 2018</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B223">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="C223">
+        <v>0.9419642857142857</v>
+      </c>
+      <c r="D223">
+        <v>2019</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Sarita - 2019</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B224">
-        <v>2015</v>
+        <v>2019</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>2020</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Sarita - 2020</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B225">
-        <v>2016</v>
+        <v>2020</v>
+      </c>
+      <c r="C225">
+        <v>0.995850622406639</v>
+      </c>
+      <c r="D225">
+        <v>2021</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Sarita - 2021</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B226">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C226">
-        <v>1.064935064935065</v>
+        <v>0.9731543624161074</v>
+      </c>
+      <c r="D226">
+        <v>2022</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Sarita - 2022</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B227">
-        <v>2018</v>
-      </c>
-      <c r="C227">
-        <v>1.036144578313253</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B228">
-        <v>2019</v>
-      </c>
-      <c r="C228">
-        <v>1.035714285714286</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Sarita</t>
         </is>
       </c>
       <c r="B229">
-        <v>2020</v>
-      </c>
-      <c r="C229">
-        <v>1.080808080808081</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B230">
-        <v>2021</v>
-      </c>
-      <c r="C230">
-        <v>1.058252427184466</v>
-      </c>
-      <c r="D230">
-        <v>2022</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Thornton - 2022</t>
-        </is>
+        <v>2013</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B231">
-        <v>2022</v>
+        <v>2014</v>
+      </c>
+      <c r="C231">
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Thornton</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B232">
-        <v>2023</v>
+        <v>2015</v>
+      </c>
+      <c r="C232">
+        <v>2.655172413793104</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B233">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B234">
-        <v>2014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B235">
-        <v>2015</v>
-      </c>
-      <c r="C235">
-        <v>0.9230769230769231</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B236">
-        <v>2016</v>
+        <v>2019</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B237">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C237">
-        <v>0.9047619047619048</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B238">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C238">
-        <v>1.476190476190476</v>
+        <v>0.9827586206896551</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B239">
-        <v>2019</v>
-      </c>
-      <c r="C239">
-        <v>2.333333333333333</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B240">
-        <v>2020</v>
-      </c>
-      <c r="C240">
-        <v>1.153846153846154</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Tahsis</t>
         </is>
       </c>
       <c r="B241">
-        <v>2021</v>
-      </c>
-      <c r="C241">
-        <v>1.8</v>
-      </c>
-      <c r="D241">
-        <v>2022</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Toquart - 2022</t>
-        </is>
+        <v>2024</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B242">
-        <v>2022</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Toquart</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B243">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B244">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B245">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B246">
-        <v>2015</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>2017</v>
+      </c>
+      <c r="C246">
+        <v>1.064935064935065</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B247">
-        <v>2016</v>
+        <v>2018</v>
+      </c>
+      <c r="C247">
+        <v>1.036144578313253</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B248">
-        <v>2017</v>
+        <v>2019</v>
+      </c>
+      <c r="C248">
+        <v>1.035714285714286</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B249">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="C249">
+        <v>1.080808080808081</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B250">
-        <v>2019</v>
+        <v>2021</v>
+      </c>
+      <c r="C250">
+        <v>1.058252427184466</v>
+      </c>
+      <c r="D250">
+        <v>2022</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Thornton - 2022</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B251">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B252">
-        <v>2021</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Tranquil</t>
+          <t>Thornton</t>
         </is>
       </c>
       <c r="B253">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>2015</v>
+      </c>
+      <c r="C256">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>2017</v>
+      </c>
+      <c r="C258">
+        <v>0.9047619047619048</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>2018</v>
+      </c>
+      <c r="C259">
+        <v>1.476190476190476</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>2019</v>
+      </c>
+      <c r="C260">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>2020</v>
+      </c>
+      <c r="C261">
+        <v>1.153846153846154</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>2021</v>
+      </c>
+      <c r="C262">
+        <v>1.8</v>
+      </c>
+      <c r="D262">
+        <v>2022</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Toquart - 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Toquart</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
           <t>Tranquil</t>
         </is>
       </c>
-      <c r="B254">
+      <c r="B266">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>2015</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B276">
         <v>2023</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Tranquil</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
